--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1605.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1605.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.181251857486481</v>
+        <v>0.5899688005447388</v>
       </c>
       <c r="B1">
-        <v>2.369276552914168</v>
+        <v>1.331511616706848</v>
       </c>
       <c r="C1">
-        <v>5.148626462440749</v>
+        <v>5.758915424346924</v>
       </c>
       <c r="D1">
-        <v>2.316771807531403</v>
+        <v>2.594637155532837</v>
       </c>
       <c r="E1">
-        <v>1.037891187883002</v>
+        <v>1.35286271572113</v>
       </c>
     </row>
   </sheetData>
